--- a/Model_fitting/Host/Data/dataMED4.xlsx
+++ b/Model_fitting/Host/Data/dataMED4.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HDD_Data_750Go/Dropbox (Personnelle)/2019Demory_mbio/Model_fitting/Host/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddemory3/Dropbox (Personal)/2019Demory_Light_infection_V2/Model_fitting/Host/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3834102C-0B55-E34F-9905-62208C6FCDE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MED4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Sampling time
 (ZT time)</t>
@@ -41,11 +42,14 @@
   <si>
     <t>SD</t>
   </si>
+  <si>
+    <t>NaN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -91,22 +95,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -118,6 +122,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -385,11 +392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -398,208 +405,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <v>160537313.43283582</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1328358.2089552283</v>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>161376865.6716418</v>
-      </c>
-      <c r="C4" s="6">
-        <v>12353455.422761537</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>160537313.43283582</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1328358.2089552283</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>161152985.07462686</v>
-      </c>
-      <c r="C5" s="6">
-        <v>5841080.3398553897</v>
+        <v>161376865.6716418</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12353455.422761537</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>156130597.01492536</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4713989.2552010594</v>
+        <v>161152985.07462686</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5841080.3398553897</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>164414179.10447761</v>
-      </c>
-      <c r="C7" s="6">
-        <v>9675892.6016503666</v>
+        <v>156130597.01492536</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4713989.2552010594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>181384328.35820895</v>
-      </c>
-      <c r="C8" s="6">
-        <v>8708557.9402663019</v>
+        <v>164414179.10447761</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9675892.6016503666</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="B9" s="1">
-        <v>193238805.97014925</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2698336.5749616013</v>
+        <v>181384328.35820895</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8708557.9402663019</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>211820895.52238804</v>
-      </c>
-      <c r="C10" s="6">
-        <v>4613401.208021109</v>
+        <v>193238805.97014925</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2698336.5749616013</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>228649253.7313433</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1148065.8718720307</v>
+        <v>211820895.52238804</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4613401.208021109</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>245630597.01492539</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3600842.9342836114</v>
+        <v>228649253.7313433</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1148065.8718720307</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>24.5</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>255175373.13432837</v>
-      </c>
-      <c r="C13" s="6">
-        <v>4154034.2776250211</v>
+        <v>245630597.01492539</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3600842.9342836114</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="B14" s="1">
-        <v>237029850.74626866</v>
-      </c>
-      <c r="C14" s="6">
-        <v>5479922.7844849909</v>
+        <v>255175373.13432837</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4154034.2776250211</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
-        <v>245246268.65671641</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2604477.6119403094</v>
+        <v>237029850.74626866</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5479922.7844849909</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>243835820.89552242</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3417356.4042898323</v>
+        <v>245246268.65671641</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2604477.6119403094</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
-        <v>245014925.37313432</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1283582.0895522386</v>
+        <v>243835820.89552242</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3417356.4042898323</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1">
+        <v>245014925.37313432</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1283582.0895522386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>34</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>248955223.880597</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="3">
         <v>9159078.9930965323</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
